--- a/今後の予定.xlsx
+++ b/今後の予定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3773835-C3AF-485E-9A3B-BE7BCDEB2435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8197070-1D3D-4757-942A-83E00F0B6455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -146,8 +154,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,7 +478,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -478,7 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/今後の予定.xlsx
+++ b/今後の予定.xlsx
@@ -8,33 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8197070-1D3D-4757-942A-83E00F0B6455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56809FF3-9A4D-443D-926E-190E0CA307C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>今後の予定</t>
     <rPh sb="0" eb="2">
@@ -53,39 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オブジェクト、敵にアセット適用</t>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM、SE、Voise追加</t>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル画面、リザルト画面、エンディング画面を完成</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>爆弾のカウント</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
@@ -99,6 +57,111 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オブジェクト、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敵にアセット適用</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁を半透明にする</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハントウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディングの絵</t>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの絵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pressabutton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの絵</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>タイトル画面、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>リザルト画面、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エンディング画面を完成</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM、SE、Voise追加</t>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +191,30 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -154,11 +241,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,47 +568,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843441AC-D5F8-4CA8-8415-87BF0C881BD1}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
